--- a/biology/Zoologie/Euptychia_jesia/Euptychia_jesia.xlsx
+++ b/biology/Zoologie/Euptychia_jesia/Euptychia_jesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Euptychia jesia est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia jesia a été décrit par Arthur Gardiner Butler en  1869[1].
-Noms vernaculaires
-Euptychia jesia se nomme Jesia Satyr ou Jesia Ringlet en anglais[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia jesia a été décrit par Arthur Gardiner Butler en  1869.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euptychia jesia est un papillon d'une envergure d'environ 33 mm au dessus blanc avec aux ailes antérieures une bordure beige foncé du bord costal et du bord externe couvrant tout l'apex[4].
-Le revers est blanc rayé de quatre lignes ocre roux, basale, discale, postdiscale et submarginale avec un décor en ligne marginale de petits dessins ocre. L'apex de l'aile antérieure porte un ocelle noir pupillé et l'aile postérieure une ligne d'ocelles cerclés de beige de taille diverse dont deux proches de l'angle anal (un petit et un gros) et deux proches de l'apex (un petit et un gros) sont noirs et pupillés.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia jesia se nomme Jesia Satyr ou Jesia Ringlet en anglais,.
 </t>
         </is>
       </c>
@@ -573,14 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biologie n'est pas connue[3].
-Plantes hôtes
-La plante hôte de sa chenille est une Selaginella, Selaginella horizontalis[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia jesia est un papillon d'une envergure d'environ 33 mm au dessus blanc avec aux ailes antérieures une bordure beige foncé du bord costal et du bord externe couvrant tout l'apex.
+Le revers est blanc rayé de quatre lignes ocre roux, basale, discale, postdiscale et submarginale avec un décor en ligne marginale de petits dessins ocre. L'apex de l'aile antérieure porte un ocelle noir pupillé et l'aile postérieure une ligne d'ocelles cerclés de beige de taille diverse dont deux proches de l'angle anal (un petit et un gros) et deux proches de l'apex (un petit et un gros) sont noirs et pupillés.
 </t>
         </is>
       </c>
@@ -606,16 +624,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie n'est pas connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euptychia_jesia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_jesia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est une Selaginella, Selaginella horizontalis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euptychia_jesia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_jesia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia jesia est présent au Mexique, en Colombie, en Équateur, au Venezuela et au Pérou[1].
-Biotope
-Il réside dans la forêt tropicale humide[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia jesia est présent au Mexique, en Colombie, en Équateur, au Venezuela et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euptychia_jesia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_jesia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euptychia_jesia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_jesia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Euptychia jesia, sur Wikimedia CommonsEuptychia jesia, sur Wikispecies
 </t>
